--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_10_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_10_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>343.2384627111447</v>
+        <v>68304.45407951766</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>343.2384627111447</v>
+        <v>68304.45407951766</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84163.67417384102</v>
+        <v>5792454.107094469</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>84163.67417384102</v>
+        <v>5792454.107094469</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494905937.631116</v>
+        <v>54382213.64767277</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15570.92245763223</v>
+        <v>1264720.278630255</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30230.30149032696</v>
+        <v>2359562.988817484</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>44887.17478236196</v>
+        <v>3454405.699004712</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>60523.32588995684</v>
+        <v>4480640.295389279</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>75503.41043037739</v>
+        <v>5573403.403251966</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90469.04240081746</v>
+        <v>6667148.772543963</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>105434.6743712575</v>
+        <v>7760894.141835954</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>120400.3063416976</v>
+        <v>8854639.511127945</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>135610.0984098067</v>
+        <v>9902755.571614049</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>150616.6855230335</v>
+        <v>11001349.58048683</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>165593.9716261594</v>
+        <v>12094112.68834951</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>180571.2577292852</v>
+        <v>13186875.79621219</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>195548.5438324111</v>
+        <v>14279638.90407488</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>210525.8299355368</v>
+        <v>15372402.01193757</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>226702.8129530161</v>
+        <v>16329066.88948352</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>134</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>108</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
